--- a/Documentation/CSPROJ Docu/01 Gantt Chart/gantt.xlsx
+++ b/Documentation/CSPROJ Docu/01 Gantt Chart/gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martha\Desktop\carkila\Documentation\CSPROJ Docu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martha\Desktop\carkila\Documentation\CSPROJ Docu\01 Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,13 +171,13 @@
     <t>TESTING</t>
   </si>
   <si>
-    <t>FINAL REVISION</t>
-  </si>
-  <si>
-    <t>Revise Documentation</t>
-  </si>
-  <si>
     <t>Testing/Debugging</t>
+  </si>
+  <si>
+    <t>PROJECT CLOSURE</t>
+  </si>
+  <si>
+    <t>Final Revised Documentation</t>
   </si>
 </sst>
 </file>
@@ -637,13 +637,7 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -742,10 +736,10 @@
                   <c:v>Testing/Debugging</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FINAL REVISION</c:v>
+                  <c:v>PROJECT CLOSURE</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Revise Documentation</c:v>
+                  <c:v>Final Revised Documentation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -863,7 +857,7 @@
             <c:v>Duration</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill>
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent6">
@@ -884,18 +878,11 @@
                 </a:gs>
               </a:gsLst>
               <a:lin ang="16200000" scaled="1"/>
-              <a:tileRect/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -994,10 +981,10 @@
                   <c:v>Testing/Debugging</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FINAL REVISION</c:v>
+                  <c:v>PROJECT CLOSURE</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Revise Documentation</c:v>
+                  <c:v>Final Revised Documentation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1115,42 +1102,13 @@
             <c:v>Tasks</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1249,10 +1207,10 @@
                   <c:v>Testing/Debugging</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>FINAL REVISION</c:v>
+                  <c:v>PROJECT CLOSURE</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Revise Documentation</c:v>
+                  <c:v>Final Revised Documentation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1373,11 +1331,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1045754864"/>
-        <c:axId val="1045758672"/>
+        <c:axId val="1037319696"/>
+        <c:axId val="1037330576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1045754864"/>
+        <c:axId val="1037319696"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1389,14 +1347,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:alpha val="54000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
-            <a:tailEnd type="triangle"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1407,8 +1365,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1419,7 +1378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045758672"/>
+        <c:crossAx val="1037330576"/>
         <c:crossesAt val="42840"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1428,7 +1387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1045758672"/>
+        <c:axId val="1037330576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42900"/>
@@ -1439,9 +1398,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1467,8 +1426,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1479,7 +1439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045754864"/>
+        <c:crossAx val="1037319696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1496,28 +1456,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1580,33 +1529,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1614,34 +1565,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1650,8 +1593,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1670,6 +1614,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1678,20 +1630,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1700,13 +1652,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1718,10 +1670,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1730,17 +1682,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1758,18 +1709,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1788,13 +1742,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1806,14 +1761,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1827,8 +1782,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1842,6 +1798,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1853,9 +1815,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1870,13 +1832,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1888,14 +1851,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1907,13 +1870,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1922,13 +1886,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1936,7 +1901,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1949,21 +1914,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1971,14 +1926,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1990,19 +1945,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2018,6 +1966,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2026,8 +1975,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2043,13 +1993,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2058,8 +2009,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2071,6 +2023,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2376,7 +2334,7 @@
   <dimension ref="A2:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:D49"/>
+      <selection activeCell="O40" sqref="O40:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,7 +2949,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
@@ -3011,7 +2969,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1">
         <f>(E33-D33)</f>
@@ -3031,7 +2989,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
         <f>(E34-D34)</f>

--- a/Documentation/CSPROJ Docu/01 Gantt Chart/gantt.xlsx
+++ b/Documentation/CSPROJ Docu/01 Gantt Chart/gantt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>CONCEPT</t>
   </si>
@@ -178,16 +178,29 @@
   </si>
   <si>
     <t>Final Revised Documentation</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Project Schedule</t>
+  </si>
+  <si>
+    <t>CARKILA</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +224,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,10 +504,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,8 +615,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,112 +678,212 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$8:$B$39</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>CONCEPT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planning</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Idea Brainstorming</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Identify Problem Domain</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Identify Possible Solutions (Features)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Data Gathering</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Survey on Renters</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Survey on Drivers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Review existing systems</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Documentation</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Draft of project documentation</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Final Documentation</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>DESIGN</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>System</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Create SRS</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Design Database</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Create UML Diagrams</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>User Interface</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Create Screen Layouts</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Review Design</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Finalize the design</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DEVELOPMENT</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Finalize Development Environment</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Basic User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>User Login</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>User Registration</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Renter User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Driver User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>TESTING</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Testing/Debugging</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>PROJECT CLOSURE</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Final Revised Documentation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CONCEPT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Idea Brainstorming</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Identify Problem Domain</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Identify Possible Solutions (Features)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Data Gathering</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Survey on Renters</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Survey on Drivers</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Review existing systems</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Draft of project documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Final Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>DESIGN</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>System</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Create SRS</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Design Database</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Create UML Diagrams</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>User Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Create Screen Layouts</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Review Design</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Finalize the design</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>DEVELOPMENT</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Finalize Development Environment</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Basic User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>User Login</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>User Registration</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Renter User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Driver User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>TESTING</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Testing/Debugging</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>PROJECT CLOSURE</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Final Revised Documentation</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.1</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>5.1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$34</c:f>
+              <c:f>Sheet1!$D$8:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -796,22 +933,22 @@
                   <c:v>43000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43006</c:v>
+                  <c:v>43004</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43010</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43076</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43076</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43089</c:v>
+                  <c:v>43087</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43089</c:v>
+                  <c:v>43087</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43124</c:v>
@@ -886,112 +1023,212 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$8:$B$39</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>CONCEPT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planning</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Idea Brainstorming</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Identify Problem Domain</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Identify Possible Solutions (Features)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Data Gathering</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Survey on Renters</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Survey on Drivers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Review existing systems</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Documentation</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Draft of project documentation</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Final Documentation</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>DESIGN</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>System</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Create SRS</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Design Database</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Create UML Diagrams</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>User Interface</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Create Screen Layouts</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Review Design</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Finalize the design</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DEVELOPMENT</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Finalize Development Environment</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Basic User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>User Login</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>User Registration</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Renter User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Driver User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>TESTING</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Testing/Debugging</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>PROJECT CLOSURE</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Final Revised Documentation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CONCEPT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Idea Brainstorming</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Identify Problem Domain</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Identify Possible Solutions (Features)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Data Gathering</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Survey on Renters</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Survey on Drivers</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Review existing systems</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Draft of project documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Final Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>DESIGN</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>System</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Create SRS</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Design Database</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Create UML Diagrams</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>User Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Create Screen Layouts</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Review Design</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Finalize the design</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>DEVELOPMENT</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Finalize Development Environment</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Basic User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>User Login</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>User Registration</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Renter User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Driver User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>TESTING</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Testing/Debugging</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>PROJECT CLOSURE</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Final Revised Documentation</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.1</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>5.1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$34</c:f>
+              <c:f>Sheet1!$C$8:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1032,25 +1269,25 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>16</c:v>
@@ -1059,7 +1296,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -1112,112 +1349,212 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$8:$B$39</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>CONCEPT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Planning</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Idea Brainstorming</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Identify Problem Domain</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Identify Possible Solutions (Features)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Data Gathering</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Survey on Renters</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Survey on Drivers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Review existing systems</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Documentation</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Draft of project documentation</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Final Documentation</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>DESIGN</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>System</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Create SRS</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Design Database</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Create UML Diagrams</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>User Interface</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Create Screen Layouts</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Review Design</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Finalize the design</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>DEVELOPMENT</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Finalize Development Environment</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Basic User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>User Login</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>User Registration</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Renter User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Driver User Functionalities</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>TESTING</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Testing/Debugging</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>PROJECT CLOSURE</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Final Revised Documentation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CONCEPT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Idea Brainstorming</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Identify Problem Domain</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Identify Possible Solutions (Features)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Data Gathering</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Survey on Renters</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Survey on Drivers</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Review existing systems</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Draft of project documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Final Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>DESIGN</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>System</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Create SRS</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Design Database</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Create UML Diagrams</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>User Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Create Screen Layouts</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Review Design</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Finalize the design</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>DEVELOPMENT</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Finalize Development Environment</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Basic User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>User Login</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>User Registration</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Renter User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Driver User Functionalities</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>TESTING</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Testing/Debugging</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>PROJECT CLOSURE</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Final Revised Documentation</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.1.3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3.4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.1</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>5.1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1331,11 +1668,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1037319696"/>
-        <c:axId val="1037330576"/>
+        <c:axId val="1017665072"/>
+        <c:axId val="1017657456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1037319696"/>
+        <c:axId val="1017665072"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1359,16 +1696,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1378,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037330576"/>
+        <c:crossAx val="1017657456"/>
         <c:crossesAt val="42840"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,13 +1721,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1037330576"/>
+        <c:axId val="1017657456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42900"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1426,10 +1760,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1439,8 +1770,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037319696"/>
-        <c:crosses val="max"/>
+        <c:crossAx val="1017665072"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1475,7 +1806,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2037,16 +2372,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256134</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>54223</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>262062</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>82156</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>528917</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2331,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40:P40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,661 +2682,683 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="E7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <f>(E3-D3)</f>
+      <c r="C8" s="1">
+        <f>(E8-D8)</f>
         <v>84</v>
       </c>
-      <c r="D3" s="10">
-        <f>D4</f>
+      <c r="D8" s="10">
+        <f>D9</f>
         <v>42900</v>
       </c>
-      <c r="E3" s="10">
-        <f>E14</f>
+      <c r="E8" s="10">
+        <f>E19</f>
         <v>42984</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <f>(E4-D4)</f>
+      <c r="C9" s="1">
+        <f>(E9-D9)</f>
         <v>19</v>
       </c>
-      <c r="D4" s="10">
-        <f>D5</f>
+      <c r="D9" s="10">
+        <f>D10</f>
         <v>42900</v>
       </c>
-      <c r="E4" s="10">
-        <f>E7</f>
+      <c r="E9" s="10">
+        <f>E12</f>
         <v>42919</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <f>(E5-D5)</f>
+      <c r="C10" s="1">
+        <f>(E10-D10)</f>
         <v>7</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D10" s="10">
         <f>DATE(2017,6,14)</f>
         <v>42900</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E10" s="10">
         <f>DATE(2017,6,21)</f>
         <v>42907</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C16" si="0">(E6-D6)</f>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:C19" si="0">(E11-D11)</f>
         <v>7</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D11" s="10">
         <f>DATE(2017,6,21)</f>
         <v>42907</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E11" s="10">
         <f>DATE(2017,6,28)</f>
         <v>42914</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D12" s="10">
         <f>DATE(2017,6,28)</f>
         <v>42914</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E12" s="10">
         <f>DATE(2017,7,3)</f>
         <v>42919</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>1.2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D8" s="10">
-        <f>D9</f>
+      <c r="D13" s="10">
+        <f>D14</f>
         <v>42920</v>
       </c>
-      <c r="E8" s="10">
-        <f>E11</f>
+      <c r="E13" s="10">
+        <f>E16</f>
         <v>42947</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D14" s="10">
         <f>DATE(2017,7,4)</f>
         <v>42920</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E14" s="10">
         <f>DATE(2017,7,14)</f>
         <v>42930</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D15" s="10">
         <f>DATE(2017,7,12)</f>
         <v>42928</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E15" s="10">
         <f>DATE(2017,7,22)</f>
         <v>42938</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D16" s="10">
         <f>DATE(2017,7,21)</f>
         <v>42937</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E16" s="10">
         <f>DATE(2017,7,31)</f>
         <v>42947</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>1.3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D12" s="10">
-        <f>D13</f>
+      <c r="D17" s="10">
+        <f>D18</f>
         <v>42941</v>
       </c>
-      <c r="E12" s="10">
-        <f>E14</f>
+      <c r="E17" s="10">
+        <f>E19</f>
         <v>42984</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D18" s="10">
         <f>DATE(2017,7,25)</f>
         <v>42941</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E18" s="10">
         <f>DATE(2017,8,8)</f>
         <v>42955</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D19" s="10">
         <f>DATE(2017,8,8)</f>
         <v>42955</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E19" s="10">
         <f>DATE(2017,9,6)</f>
         <v>42984</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="D15" s="10">
-        <f>D17</f>
+      <c r="C20" s="1">
+        <f>(E20-D20)</f>
+        <v>103</v>
+      </c>
+      <c r="D20" s="10">
+        <f>D21</f>
         <v>43000</v>
       </c>
-      <c r="E15" s="10">
-        <f>E23</f>
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="E20" s="10">
+        <f>E28</f>
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>2.1</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C21" s="1">
+        <f>(E21-D21)</f>
+        <v>66</v>
+      </c>
+      <c r="D21" s="10">
+        <f>D22</f>
+        <v>43000</v>
+      </c>
+      <c r="E21" s="10">
+        <f>E24</f>
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <f>(E22-D22)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="10">
         <f>DATE(2017,9,22)</f>
         <v>43000</v>
       </c>
-      <c r="E16" s="10">
-        <f>E19</f>
-        <v>43075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1">
-        <f>(E17-D17)</f>
-        <v>7</v>
-      </c>
-      <c r="D17" s="10">
-        <f>DATE(2017,9,22)</f>
-        <v>43000</v>
-      </c>
-      <c r="E17" s="10">
-        <f>DATE(2017,9,29)</f>
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="E22" s="10">
+        <f>DATE(2017,9,26)</f>
+        <v>43004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1">
-        <f>(E18-D18)</f>
+      <c r="C23" s="1">
+        <f>(E23-D23)</f>
         <v>6</v>
       </c>
-      <c r="D18" s="10">
-        <f>DATE(2017,9,28)</f>
-        <v>43006</v>
-      </c>
-      <c r="E18" s="10">
-        <f>DATE(2017,10,4)</f>
-        <v>43012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1">
-        <f>(E19-D19)</f>
-        <v>65</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="D23" s="10">
+        <f>DATE(2017,9,26)</f>
+        <v>43004</v>
+      </c>
+      <c r="E23" s="10">
         <f>DATE(2017,10,2)</f>
         <v>43010</v>
       </c>
-      <c r="E19" s="10">
-        <f>DATE(2017,12,6)</f>
-        <v>43075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(E24-D24)</f>
+        <v>56</v>
+      </c>
+      <c r="D24" s="10">
+        <f>DATE(2017,10,2)</f>
+        <v>43010</v>
+      </c>
+      <c r="E24" s="10">
+        <f>DATE(2017,11,27)</f>
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" ref="C20:C22" si="1">(E20-D20)</f>
-        <v>13</v>
-      </c>
-      <c r="D20" s="10">
-        <f>D21</f>
-        <v>43076</v>
-      </c>
-      <c r="E20" s="10">
-        <f>E21</f>
-        <v>43089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:C27" si="1">(E25-D25)</f>
+        <v>17</v>
+      </c>
+      <c r="D25" s="10">
+        <f>D26</f>
+        <v>43067</v>
+      </c>
+      <c r="E25" s="10">
+        <f>E26</f>
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D21" s="10">
-        <f>DATE(2017,12,7)</f>
-        <v>43076</v>
-      </c>
-      <c r="E21" s="10">
-        <f>DATE(2017,12,20)</f>
-        <v>43089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10">
+        <f>DATE(2017,11,28)</f>
+        <v>43067</v>
+      </c>
+      <c r="E26" s="10">
+        <f>DATE(2017,12,15)</f>
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D22" s="10">
-        <f>D23</f>
-        <v>43089</v>
-      </c>
-      <c r="E22" s="10">
-        <f>E23</f>
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D27" s="10">
+        <f>D28</f>
+        <v>43087</v>
+      </c>
+      <c r="E27" s="10">
+        <f>E28</f>
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="1">
-        <f>(E23-D23)</f>
+      <c r="C28" s="1">
+        <f>(E28-D28)</f>
         <v>16</v>
       </c>
-      <c r="D23" s="10">
-        <f>DATE(2017,12,20)</f>
-        <v>43089</v>
-      </c>
-      <c r="E23" s="10">
-        <f>DATE(2018,1,5)</f>
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="D28" s="10">
+        <f>DATE(2017,12,18)</f>
+        <v>43087</v>
+      </c>
+      <c r="E28" s="10">
+        <f>DATE(2018,1,3)</f>
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" ref="C24:C32" si="2">(E24-D24)</f>
-        <v>63</v>
-      </c>
-      <c r="D24" s="10">
-        <f>D25</f>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:C37" si="2">(E29-D29)</f>
+        <v>85</v>
+      </c>
+      <c r="D29" s="10">
+        <f>D30</f>
         <v>43124</v>
       </c>
-      <c r="E24" s="10">
-        <f>E30</f>
-        <v>43187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="E29" s="10">
+        <f>E39</f>
+        <v>43209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>3.1</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C30" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D30" s="10">
         <f>DATE(2018,1,24)</f>
         <v>43124</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E30" s="10">
         <f>DATE(2018,1,31)</f>
         <v>43131</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>3.2</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C31" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D26" s="10">
-        <f>D27</f>
+      <c r="D31" s="10">
+        <f>D32</f>
         <v>43131</v>
       </c>
-      <c r="E26" s="10">
-        <f>E28</f>
+      <c r="E31" s="10">
+        <f>E33</f>
         <v>43138</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C32" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D32" s="10">
         <f>DATE(2018,1,31)</f>
         <v>43131</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E32" s="10">
         <f>DATE(2018,2,5)</f>
         <v>43136</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C33" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D33" s="10">
         <f>DATE(2018,2,2)</f>
         <v>43133</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E33" s="10">
         <f>DATE(2018,2,7)</f>
         <v>43138</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>3.3</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C34" s="1">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D34" s="10">
         <f>DATE(2018,2,7)</f>
         <v>43138</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E34" s="10">
         <f>DATE(2018,3,28)</f>
         <v>43187</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>3.4</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C35" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D35" s="10">
         <f>DATE(2018,2,21)</f>
         <v>43152</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E35" s="10">
         <f>DATE(2018,3,28)</f>
         <v>43187</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>4</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C36" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D31" s="10">
-        <f>D32</f>
+      <c r="D36" s="10">
+        <f>D37</f>
         <v>43187</v>
       </c>
-      <c r="E31" s="10">
-        <f>E32</f>
+      <c r="E36" s="10">
+        <f>E37</f>
         <v>43200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C37" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D37" s="10">
         <f>DATE(2018,3,28)</f>
         <v>43187</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E37" s="10">
         <f>DATE(2018,4,10)</f>
         <v>43200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>5</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="1">
-        <f>(E33-D33)</f>
+      <c r="C38" s="1">
+        <f>(E38-D38)</f>
         <v>7</v>
       </c>
-      <c r="D33" s="10">
-        <f>D34</f>
+      <c r="D38" s="10">
+        <f>D39</f>
         <v>43202</v>
       </c>
-      <c r="E33" s="10">
-        <f>E34</f>
+      <c r="E38" s="10">
+        <f>E39</f>
         <v>43209</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="1">
-        <f>(E34-D34)</f>
+      <c r="C39" s="1">
+        <f>(E39-D39)</f>
         <v>7</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D39" s="10">
         <f>DATE(2018,4,12)</f>
         <v>43202</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E39" s="10">
         <f>DATE(2018,4,19)</f>
         <v>43209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="4">
+        <f>SUM(C38,C36,C29,C20,C8)</f>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,11 +3414,13 @@
       <c r="D49" s="33"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D21 D25" formula="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
